--- a/Section_No_Manual.xlsx
+++ b/Section_No_Manual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\恭浩\Desktop\RelaxTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\恭浩\Desktop\git\RelaxTools\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,53 +38,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="196">
   <si>
     <t>Application.StandardFont</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>設定</t>
     <rPh sb="0" eb="2">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Application.StandardFontSize</t>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>1 初期処理</t>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>アプリケーション名</t>
     <rPh sb="8" eb="9">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>3</t>
@@ -97,25 +97,25 @@
     <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>キー名</t>
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>デフォルト値</t>
     <rPh sb="5" eb="6">
       <t>アタイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>"x"</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>2 メイン処理</t>
@@ -125,15 +125,15 @@
   </si>
   <si>
     <t>"RelaxTools"</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>"Section"</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>"Pos"</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>2.2.2.1 クラス名のデフォルト値を取得する(getDefault)</t>
@@ -146,7 +146,7 @@
     <rPh sb="24" eb="26">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>2.2.2.2.1 クラス(SectionStruct)を生成して変数(ss)にセットする。</t>
@@ -168,7 +168,7 @@
     <rPh sb="10" eb="12">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>5</t>
@@ -241,27 +241,27 @@
     <rPh sb="23" eb="24">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>false をセット</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">C_FONT_DEFAULT </t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>C_FONT_SIZE_DEFAULT</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>C_FONT_SIZE_DEFAULT をセット</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>C_FONT_DEFAULT をセット</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>2.2.2.2.3 オブジェクト(ss)を解放する</t>
@@ -298,25 +298,25 @@
     <rPh sb="23" eb="25">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>引数１</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>引数２</t>
     <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>コレクションオブジェクト1(col)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>2.2.4 コレクション(col)を解放する</t>
@@ -374,7 +374,7 @@
     <rPh sb="46" eb="48">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>章を書きます</t>
@@ -411,14 +411,14 @@
     <rPh sb="0" eb="1">
       <t>ヒダリ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>右インデント</t>
     <rPh sb="0" eb="1">
       <t>ミギ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>インデントしたり、コピペしている間に段落番号がずれていきます。（ここは半自動なので）</t>
@@ -437,7 +437,7 @@
     <rPh sb="36" eb="38">
       <t>ジドウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>その場合には「段落番号更新」を行います。</t>
@@ -456,7 +456,7 @@
     <rPh sb="15" eb="16">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>↓列頭</t>
@@ -466,7 +466,7 @@
     <rPh sb="2" eb="3">
       <t>アタマ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>段落番号がレベルに応じて</t>
@@ -479,14 +479,14 @@
     <rPh sb="9" eb="10">
       <t>オウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>振りなおされます。</t>
     <rPh sb="0" eb="1">
       <t>フ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>1.2 項を書きます</t>
@@ -514,14 +514,14 @@
     <rPh sb="21" eb="23">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>更新</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>文中などで段落番号を参照する場合、「段落番号コピー」を押下します。</t>
@@ -549,7 +549,7 @@
     <rPh sb="27" eb="29">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>コピーしたいセルを選択して「段落番号コピー」を押下します。</t>
@@ -565,7 +565,7 @@
     <rPh sb="23" eb="25">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>1, 1.1, 1.2, 1.2.1</t>
@@ -578,11 +578,11 @@
     <rPh sb="8" eb="10">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>設定１～６のラジオボタンを押下して段落番号を有効にします。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>作成した段落番号をもとに目次を作成することができます。</t>
@@ -601,7 +601,7 @@
     <rPh sb="15" eb="17">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「目次の作成」を押下します。</t>
@@ -614,7 +614,7 @@
     <rPh sb="8" eb="10">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「目次の作成」画面が表示されます。</t>
@@ -630,7 +630,7 @@
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>目次を作成するシートとレベルを指定して「作成」ボタンを押下すると、目次が作成されます。</t>
@@ -655,7 +655,7 @@
     <rPh sb="36" eb="38">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>列全体を選択して、「段落番号更新」をすれば一気に段落番号を振りなおすことができます！</t>
@@ -689,7 +689,7 @@
     <rPh sb="29" eb="30">
       <t>フ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>結果は「目次」シートを見てね！</t>
@@ -702,7 +702,7 @@
     <rPh sb="11" eb="12">
       <t>ミ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>☆便利な使い方１</t>
@@ -715,7 +715,7 @@
     <rPh sb="6" eb="7">
       <t>カタ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>☆便利な使い方２</t>
@@ -728,7 +728,7 @@
     <rPh sb="6" eb="7">
       <t>カタ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>設定１～６のラジオボタンで別の設定に変更した後、列全体選択→「段落番号更新」をすると</t>
@@ -765,7 +765,7 @@
     <rPh sb="35" eb="37">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>一気に別設定の段落番号を振りなおすことができます！</t>
@@ -775,7 +775,7 @@
     <rPh sb="4" eb="6">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>プログラムで段落番号を認識する場合には、間にある半角スペースを含めて判断しているので、スペースは削除しないでください。</t>
@@ -806,7 +806,7 @@
     <rPh sb="48" eb="50">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>行頭文字を追加するセルを選択（１つまたは複数）して「行頭文字追加」を押下します。</t>
@@ -822,7 +822,7 @@
     <rPh sb="28" eb="30">
       <t>モジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>箇条書きです。</t>
@@ -832,7 +832,7 @@
     <rPh sb="0" eb="3">
       <t>カジョウガ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・箇条書きです。</t>
@@ -857,7 +857,7 @@
     <rPh sb="30" eb="32">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>◆箇条書きです。</t>
@@ -867,7 +867,7 @@
     <rPh sb="15" eb="17">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>行頭文字を変更するセルを選択（１つまたは複数）して「行頭文字追加」の下「▼」付近を押下してメニューをドロップします。</t>
@@ -892,14 +892,14 @@
     <rPh sb="38" eb="40">
       <t>フキン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「① ----------」を選択します。</t>
     <rPh sb="15" eb="17">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>行頭番号を追加するセルを選択（１つまたは複数）して「行頭文字追加」の下「▼」付近を押下してメニューをドロップします。</t>
@@ -924,7 +924,7 @@
     <rPh sb="38" eb="40">
       <t>フキン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>①箇条書きです。</t>
@@ -970,7 +970,7 @@
     <rPh sb="32" eb="34">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>段落番号を複数の列に記述している場合には注意してください。（基本行わないのが吉）</t>
@@ -1004,7 +1004,7 @@
     <rPh sb="38" eb="39">
       <t>キチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>前シートに、現シートと同じ「列」に段落番号が指定されている場合、以下のメッセージが表示されます。</t>
@@ -1038,21 +1038,18 @@
     <rPh sb="41" eb="43">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・「はい」を選んだ場合、前シートから段落番号を引き継ぎます。</t>
   </si>
   <si>
-    <t>・「いいえ」を絵乱た場合、１から段落番号を振りなおします。</t>
-  </si>
-  <si>
     <t>段落番号＋[半角スペース1桁]＋文章－－－－－－－－</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>RelaxTools Addin For Excel 2007/2010/2013</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>２０１４年６月２１日</t>
@@ -1062,7 +1059,7 @@
     <rPh sb="7" eb="8">
       <t>ガツニチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Y.Watanabe(RelaxToolsの中の人)</t>
@@ -1072,7 +1069,7 @@
     <rPh sb="24" eb="25">
       <t>ヒト</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>段落番号機能 使用説明書</t>
@@ -1091,7 +1088,7 @@
     <rPh sb="9" eb="12">
       <t>セツメイショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>この文書はRelaxToolsの新機能「段落番号」「箇条書き」機能について</t>
@@ -1116,7 +1113,7 @@
     <rPh sb="31" eb="33">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>記述されたものです。</t>
@@ -1126,11 +1123,11 @@
     <rPh sb="4" eb="6">
       <t>ブンショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>2 おすすめキー設定について</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>3.1 段落番号の設定を選択する</t>
@@ -1185,7 +1182,7 @@
     <rPh sb="9" eb="11">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>以下の設定がおすすめです。というか必須！</t>
@@ -1198,7 +1195,7 @@
     <rPh sb="17" eb="19">
       <t>ヒッス</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>4 箇条書きの使い方</t>
@@ -1219,156 +1216,183 @@
     <t>5 段落番号のサンプル</t>
   </si>
   <si>
-    <t>第1.1版</t>
+    <t>目次</t>
+  </si>
+  <si>
+    <t>ページ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 この文書について ............................................................................................................................................................................................................................................................................................................ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 おすすめキー設定について ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 段落番号の使い方 ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1 段落番号の設定を選択する ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 現在の段落番号の設定を確認する ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3 段落番号の設定を行う ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4 設定された段落番号を有効にする ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5 段落番号を追加する ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6 インデントを行う ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6.1 右インデントの場合 ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6.2 左インデントの場合 ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7 段落番号の更新を行う ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8 段落番号をコピー＆ペーストする ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9 目次を作成する ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10 注意事項 ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10.1 段落番号の形式 ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10.2 目次作成時の対象列判定 ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10.3 前シートから段落番号を引き継ぐ ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4 箇条書きの使い方 ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1 行頭文字の追加 ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2 行頭文字の削除 ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3 行頭文字の変更 ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4 行頭番号の追加 ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5 段落番号のサンプル ............................................................................................................................................................................................................................................................................................................ </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.1 フォントの初期値を設定する</t>
+  </si>
+  <si>
+    <t>1.2 レジストリより設定値を取得する(GetSetting)</t>
+  </si>
+  <si>
+    <t>2.2 ループ処理( i = 1 To 6)</t>
+  </si>
+  <si>
+    <t>2.2.1 コレクション(col)を生成する</t>
+  </si>
+  <si>
+    <t>2.2.2 ループ処理( j = 1 To 10)</t>
+  </si>
+  <si>
+    <t>2.2.2.2 IF 2.2.2.1で取得したクラス名が""以外の場合</t>
+  </si>
+  <si>
+    <t>2.2.2.2.2 コレクション(col)にオブジェクト(ss)をAdd</t>
+  </si>
+  <si>
+    <t>3 段落番号の使い方</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>false をセット</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・「いいえ」を選んだ場合、１から段落番号を振りなおします。</t>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「section_no.key」をインポートすることで簡単にショートカットを追加可能です。</t>
+    <rPh sb="27" eb="29">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>第1.2版</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>パン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>目次</t>
-  </si>
-  <si>
-    <t>ページ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 この文書について ............................................................................................................................................................................................................................................................................................................ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 おすすめキー設定について ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3. 段落番号の使い方 ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 段落番号の設定を選択する ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 現在の段落番号の設定を確認する ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 段落番号の設定を行う ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4 設定された段落番号を有効にする ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5 段落番号を追加する ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6 インデントを行う ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6.1 右インデントの場合 ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6.2 左インデントの場合 ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7 段落番号の更新を行う ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8 段落番号をコピー＆ペーストする ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9 目次を作成する ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10 注意事項 ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10.1 段落番号の形式 ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10.2 目次作成時の対象列判定 ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10.3 前シートから段落番号を引き継ぐ ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4 箇条書きの使い方 ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1 行頭文字の追加 ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 行頭文字の削除 ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3 行頭文字の変更 ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4 行頭番号の追加 ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5 段落番号のサンプル ............................................................................................................................................................................................................................................................................................................ </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.1 フォントの初期値を設定する</t>
-  </si>
-  <si>
-    <t>1.2 レジストリより設定値を取得する(GetSetting)</t>
-  </si>
-  <si>
-    <t>2.2 ループ処理( i = 1 To 6)</t>
-  </si>
-  <si>
-    <t>2.2.1 コレクション(col)を生成する</t>
-  </si>
-  <si>
-    <t>2.2.2 ループ処理( j = 1 To 10)</t>
-  </si>
-  <si>
-    <t>2.2.2.2 IF 2.2.2.1で取得したクラス名が""以外の場合</t>
-  </si>
-  <si>
-    <t>2.2.2.2.2 コレクション(col)にオブジェクト(ss)をAdd</t>
-  </si>
-  <si>
-    <t>3 段落番号の使い方</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>false をセット</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
       <family val="2"/>
@@ -1711,119 +1735,119 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -1832,10 +1856,10 @@
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1847,59 +1871,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1923,19 +1950,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19707</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>32845</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390364</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>4223</xdr:rowOff>
+      <xdr:colOff>370657</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>46886</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1948,8 +1975,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19707" y="762000"/>
-          <a:ext cx="6519209" cy="5607551"/>
+          <a:off x="0" y="866775"/>
+          <a:ext cx="6542857" cy="5914286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1963,7 +1990,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>190748</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>116410</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -1978,8 +2005,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190748" y="4944600"/>
-          <a:ext cx="5475313" cy="602563"/>
+          <a:off x="190748" y="4867275"/>
+          <a:ext cx="5496334" cy="702551"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2033,16 +2060,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>511393</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>165538</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>225643</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>51238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>656895</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>131380</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371145</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2051,13 +2078,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1194565" y="6530866"/>
-          <a:ext cx="4244537" cy="990600"/>
+          <a:off x="3654643" y="3013513"/>
+          <a:ext cx="4260302" cy="994542"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -40413"/>
-            <a:gd name="adj2" fmla="val -208511"/>
+            <a:gd name="adj1" fmla="val -41531"/>
+            <a:gd name="adj2" fmla="val 164045"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -2195,6 +2222,72 @@
               <a:srgbClr val="000000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="円/楕円 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1407319" y="6219825"/>
+          <a:ext cx="954881" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:alpha val="0"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8356,9 +8449,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A15:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8367,7 +8458,7 @@
   <sheetData>
     <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -8380,7 +8471,7 @@
     </row>
     <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -8393,7 +8484,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="36" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -8406,7 +8497,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -8419,7 +8510,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -8431,7 +8522,7 @@
       <c r="I25" s="36"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8452,15 +8543,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8468,7 +8559,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -8476,7 +8567,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -8484,7 +8575,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -8492,7 +8583,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -8500,7 +8591,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -8508,7 +8599,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -8516,7 +8607,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -8524,7 +8615,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -8532,7 +8623,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -8540,7 +8631,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="43" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -8548,7 +8639,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -8556,7 +8647,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -8564,7 +8655,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -8572,7 +8663,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -8580,7 +8671,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -8588,7 +8679,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -8596,7 +8687,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -8604,7 +8695,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -8612,7 +8703,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -8620,7 +8711,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -8628,7 +8719,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -8636,7 +8727,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -8644,7 +8735,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -8657,7 +8748,7 @@
       <c r="A33" s="44"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
@@ -8677,21 +8768,21 @@
   <sheetData>
     <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
@@ -8703,7 +8794,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -8711,21 +8802,26 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -8749,12 +8845,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
@@ -8764,7 +8860,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
@@ -8779,7 +8875,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
@@ -8799,7 +8895,7 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
@@ -8809,7 +8905,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A114" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.15">
@@ -8871,7 +8967,7 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A133" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.15">
@@ -8881,7 +8977,7 @@
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A145" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.15">
@@ -8943,7 +9039,7 @@
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A152" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.15">
@@ -9005,7 +9101,7 @@
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A160" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.15">
@@ -9298,7 +9394,7 @@
     </row>
     <row r="187" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A187" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="188" spans="1:34" x14ac:dyDescent="0.15">
@@ -9356,7 +9452,7 @@
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A207" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.15">
@@ -9386,17 +9482,17 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.15">
@@ -9409,7 +9505,7 @@
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A259" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.15">
@@ -9427,7 +9523,7 @@
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.15">
@@ -9441,12 +9537,12 @@
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A283" s="41" t="s">
-        <v>125</v>
+      <c r="A283" s="63" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -9474,12 +9570,12 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -9587,7 +9683,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -9650,7 +9746,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
@@ -9715,7 +9811,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A65" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.15">
@@ -9845,7 +9941,7 @@
       <c r="T83" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -9871,7 +9967,7 @@
   <sheetData>
     <row r="1" spans="1:29" s="30" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="11"/>
     </row>
@@ -9893,7 +9989,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B13" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.15">
@@ -10000,7 +10096,7 @@
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.15">
@@ -10213,17 +10309,17 @@
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B27" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B28" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B29" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.15">
@@ -10297,7 +10393,7 @@
     </row>
     <row r="33" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B33" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -10370,7 +10466,7 @@
     </row>
     <row r="36" spans="2:35" x14ac:dyDescent="0.15">
       <c r="H36" s="51" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I36" s="51" t="s">
         <v>34</v>
@@ -10563,7 +10659,7 @@
       <c r="O41" s="55"/>
       <c r="P41" s="55"/>
       <c r="Q41" s="54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R41" s="55"/>
       <c r="S41" s="55"/>
@@ -10599,7 +10695,7 @@
       <c r="O42" s="55"/>
       <c r="P42" s="55"/>
       <c r="Q42" s="54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R42" s="55"/>
       <c r="S42" s="55"/>
@@ -10838,7 +10934,7 @@
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B49" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.15">
@@ -11017,7 +11113,7 @@
       <c r="Z61" s="62"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
   <headerFooter>
